--- a/Pull Request Here/What's Today's Menu - 2814874440/What's Today's Menu - 2814874440.xlsx
+++ b/Pull Request Here/What's Today's Menu - 2814874440/What's Today's Menu - 2814874440.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PDSSO2\Desktop\RimworldExtractor-Standard\RIM EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{986C11DD-112E-4AD5-B532-F17E0ED4BCFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C301230-11BF-4A2B-AE6E-E142AEF3C09A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -130,7 +130,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="695">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="681">
   <si>
     <t>Class+Node [(Identifier (Key)]</t>
   </si>
@@ -1831,29 +1831,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>Meat(Multi)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>+Rice</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>치즈 리조또</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1866,37 +1843,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>Egg</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>+Rice</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>오니기리</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Rice</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>햄버거</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1924,29 +1874,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>Peas</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>+Egg</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>corn flakes</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1963,29 +1890,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>Potato</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>+Milk</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>웨지 포테이토</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2013,29 +1917,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>Fish</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>+Pepper</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>WhatsTodaysMenu.MenuPatternDef+WTM_FishPancake.label</t>
   </si>
   <si>
@@ -2051,29 +1932,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>Fish</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>+Bread(=Wheat)</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>클램차우더</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2120,10 +1978,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>자우어는 발효식품</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>블루밍 어니언</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2144,10 +1998,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>잼은 보존식품</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>tofu</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2210,91 +2060,18 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>Pig</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>+Cabbage</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>꼬꼬뱅</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>Chiken</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>+Onion</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>핫 크리스피 치킨</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Chiken</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>트러플 머쉬룸 파스타</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>Fungus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>+Milk</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>/ingredient cake</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2303,29 +2080,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>Bread</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>+Milk</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>/ingredient steak set meal</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2376,33 +2130,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>밀푀유나베</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>Meat(Multi)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>+Veg(All)</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>WhatsTodaysMenu.MenuPatternDef+WTM_SteakBerry.label</t>
   </si>
   <si>
@@ -2414,10 +2141,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>/ingredient소스 스테이크</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>WhatsTodaysMenu.MenuPatternDef+WTM_SearedFish.label</t>
   </si>
   <si>
@@ -2462,10 +2185,6 @@
     <t>ice cream</t>
   </si>
   <si>
-    <t>베스킨라빈스</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>티라미수</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2610,6 +2329,22 @@
   </si>
   <si>
     <t>추출 툴로 안나옵니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이스크림 케이크</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ingredient 소스 스테이크</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> (fert.)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>난자완스</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2617,7 +2352,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2665,21 +2400,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
   </fonts>
   <fills count="9">
@@ -2778,14 +2498,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3187,9 +2905,6 @@
       <c r="F4" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -3205,7 +2920,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -3219,13 +2934,10 @@
         <v>19</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>550</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>551</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -3242,10 +2954,7 @@
         <v>23</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>553</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -3262,7 +2971,7 @@
         <v>26</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -3279,7 +2988,7 @@
         <v>29</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -3293,7 +3002,7 @@
         <v>135</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>391</v>
@@ -3318,22 +3027,19 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>558</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>561</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -3347,10 +3053,10 @@
         <v>34</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -3364,7 +3070,7 @@
         <v>37</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>293</v>
@@ -3384,10 +3090,7 @@
         <v>41</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -3404,10 +3107,10 @@
         <v>44</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>45</v>
       </c>
@@ -3421,10 +3124,10 @@
         <v>47</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
@@ -3438,50 +3141,44 @@
         <v>50</v>
       </c>
       <c r="F18" s="3" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="B20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F20" s="3" t="s">
         <v>573</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>579</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>51</v>
       </c>
@@ -3498,7 +3195,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>54</v>
       </c>
@@ -3515,7 +3212,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>57</v>
       </c>
@@ -3529,10 +3226,10 @@
         <v>59</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>60</v>
       </c>
@@ -3549,15 +3246,15 @@
         <v>317</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>62</v>
@@ -3566,7 +3263,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>63</v>
       </c>
@@ -3580,10 +3277,10 @@
         <v>65</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>66</v>
       </c>
@@ -3597,10 +3294,10 @@
         <v>68</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>69</v>
       </c>
@@ -3614,10 +3311,10 @@
         <v>71</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>72</v>
       </c>
@@ -3628,13 +3325,13 @@
         <v>73</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>75</v>
       </c>
@@ -3645,13 +3342,13 @@
         <v>76</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>78</v>
       </c>
@@ -3662,13 +3359,13 @@
         <v>79</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>81</v>
       </c>
@@ -3682,10 +3379,7 @@
         <v>83</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>592</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -3702,7 +3396,7 @@
         <v>86</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -3716,10 +3410,10 @@
         <v>88</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -3753,7 +3447,7 @@
         <v>94</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -3770,10 +3464,7 @@
         <v>97</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>598</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -3787,10 +3478,10 @@
         <v>99</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -3804,10 +3495,10 @@
         <v>102</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -3821,10 +3512,10 @@
         <v>105</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -3841,7 +3532,7 @@
         <v>109</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -3855,10 +3546,10 @@
         <v>111</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -3880,19 +3571,19 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -3908,11 +3599,11 @@
       <c r="E45" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F45" s="7" t="s">
-        <v>613</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>614</v>
+      <c r="F45" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -3928,11 +3619,8 @@
       <c r="E46" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F46" s="7" t="s">
-        <v>615</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>616</v>
+      <c r="F46" s="5" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -3948,11 +3636,8 @@
       <c r="E47" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F47" s="7" t="s">
-        <v>617</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>618</v>
+      <c r="F47" s="5" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
@@ -3968,14 +3653,11 @@
       <c r="E48" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="F48" s="7" t="s">
-        <v>619</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F48" s="5" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>128</v>
       </c>
@@ -3988,14 +3670,11 @@
       <c r="E49" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="F49" s="7" t="s">
-        <v>621</v>
-      </c>
-      <c r="G49" s="5" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F49" s="5" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>131</v>
       </c>
@@ -4006,13 +3685,13 @@
         <v>132</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="F50" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="F50" s="5" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>137</v>
       </c>
@@ -4025,14 +3704,11 @@
       <c r="E51" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F51" s="7" t="s">
-        <v>624</v>
-      </c>
-      <c r="G51" s="5" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F51" s="5" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>140</v>
       </c>
@@ -4043,13 +3719,13 @@
         <v>141</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="F52" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="F52" s="5" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>143</v>
       </c>
@@ -4062,11 +3738,11 @@
       <c r="E53" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="F53" s="7" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F53" s="5" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>146</v>
       </c>
@@ -4079,11 +3755,11 @@
       <c r="E54" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="F54" s="7" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F54" s="5" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>149</v>
       </c>
@@ -4096,11 +3772,11 @@
       <c r="E55" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="F55" s="7" t="s">
+      <c r="F55" s="5" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>152</v>
       </c>
@@ -4108,16 +3784,16 @@
         <v>7</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>629</v>
+        <v>615</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="F56" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="F56" s="5" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>155</v>
       </c>
@@ -4128,13 +3804,13 @@
         <v>156</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="F57" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="F57" s="5" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>158</v>
       </c>
@@ -4147,11 +3823,11 @@
       <c r="E58" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="F58" s="7" t="s">
+      <c r="F58" s="5" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>161</v>
       </c>
@@ -4164,11 +3840,11 @@
       <c r="E59" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F59" s="7" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F59" s="5" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>164</v>
       </c>
@@ -4181,11 +3857,11 @@
       <c r="E60" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="F60" s="7" t="s">
+      <c r="F60" s="5" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>167</v>
       </c>
@@ -4198,28 +3874,28 @@
       <c r="E61" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="F61" s="7" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F61" s="5" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>634</v>
+        <v>620</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>635</v>
+        <v>621</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="F62" s="7" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+        <v>622</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>169</v>
       </c>
@@ -4232,11 +3908,11 @@
       <c r="E63" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="F63" s="7" t="s">
+      <c r="F63" s="5" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>172</v>
       </c>
@@ -4247,47 +3923,44 @@
         <v>173</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="F64" s="7" t="s">
-        <v>639</v>
-      </c>
-      <c r="G64" s="5" t="s">
-        <v>640</v>
+        <v>624</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="F65" s="7" t="s">
-        <v>644</v>
+        <v>627</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>645</v>
+        <v>628</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>646</v>
+        <v>629</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>648</v>
+        <v>630</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
@@ -4303,8 +3976,8 @@
       <c r="E67" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="F67" s="7" t="s">
-        <v>649</v>
+      <c r="F67" s="5" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
@@ -4312,7 +3985,7 @@
         <v>178</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>650</v>
+        <v>633</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>179</v>
@@ -4320,8 +3993,8 @@
       <c r="E68" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="F68" s="7" t="s">
-        <v>651</v>
+      <c r="F68" s="5" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
@@ -4337,8 +4010,8 @@
       <c r="E69" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="F69" s="7" t="s">
-        <v>652</v>
+      <c r="F69" s="5" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
@@ -4354,25 +4027,25 @@
       <c r="E70" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="F70" s="7" t="s">
-        <v>653</v>
+      <c r="F70" s="5" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>654</v>
+        <v>637</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>655</v>
+        <v>638</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="F71" s="7" t="s">
-        <v>657</v>
+        <v>639</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>677</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
@@ -4388,8 +4061,8 @@
       <c r="E72" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="F72" s="7" t="s">
-        <v>658</v>
+      <c r="F72" s="5" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
@@ -4405,8 +4078,8 @@
       <c r="E73" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F73" s="7" t="s">
-        <v>659</v>
+      <c r="F73" s="5" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
@@ -4422,8 +4095,8 @@
       <c r="E74" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="F74" s="7" t="s">
-        <v>660</v>
+      <c r="F74" s="5" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
@@ -4439,8 +4112,8 @@
       <c r="E75" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="F75" s="7" t="s">
-        <v>661</v>
+      <c r="F75" s="5" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
@@ -4456,11 +4129,11 @@
       <c r="E76" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F76" s="9" t="s">
-        <v>662</v>
-      </c>
-      <c r="G76" s="10" t="s">
-        <v>663</v>
+      <c r="F76" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="G76" s="8" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
@@ -4476,8 +4149,8 @@
       <c r="E77" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="F77" s="9" t="s">
-        <v>664</v>
+      <c r="F77" s="7" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
@@ -4493,8 +4166,8 @@
       <c r="E78" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="F78" s="9" t="s">
-        <v>665</v>
+      <c r="F78" s="7" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
@@ -4508,10 +4181,10 @@
         <v>208</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="F79" s="9" t="s">
-        <v>667</v>
+        <v>648</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>649</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
@@ -4525,9 +4198,9 @@
         <v>211</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="F80" s="9" t="s">
+        <v>650</v>
+      </c>
+      <c r="F80" s="7" t="s">
         <v>486</v>
       </c>
     </row>
@@ -4542,10 +4215,10 @@
         <v>214</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="F81" s="9" t="s">
-        <v>670</v>
+        <v>651</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
@@ -4561,7 +4234,7 @@
       <c r="E82" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="F82" s="9" t="s">
+      <c r="F82" s="7" t="s">
         <v>472</v>
       </c>
     </row>
@@ -4573,13 +4246,13 @@
         <v>7</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>671</v>
+        <v>653</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="F83" s="9" t="s">
-        <v>672</v>
+      <c r="F83" s="7" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
@@ -4595,8 +4268,8 @@
       <c r="E84" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F84" s="9" t="s">
-        <v>673</v>
+      <c r="F84" s="7" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
@@ -4612,7 +4285,7 @@
       <c r="E85" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="F85" s="9" t="s">
+      <c r="F85" s="7" t="s">
         <v>479</v>
       </c>
     </row>
@@ -4629,7 +4302,7 @@
       <c r="E86" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="F86" s="9" t="s">
+      <c r="F86" s="7" t="s">
         <v>472</v>
       </c>
     </row>
@@ -4646,8 +4319,8 @@
       <c r="E87" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F87" s="9" t="s">
-        <v>674</v>
+      <c r="F87" s="7" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
@@ -4663,7 +4336,7 @@
       <c r="E88" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F88" s="9" t="s">
+      <c r="F88" s="7" t="s">
         <v>486</v>
       </c>
     </row>
@@ -4680,8 +4353,8 @@
       <c r="E89" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F89" s="9" t="s">
-        <v>673</v>
+      <c r="F89" s="7" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
@@ -4697,8 +4370,8 @@
       <c r="E90" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F90" s="9" t="s">
-        <v>675</v>
+      <c r="F90" s="7" t="s">
+        <v>657</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
@@ -4714,8 +4387,8 @@
       <c r="E91" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F91" s="9" t="s">
-        <v>674</v>
+      <c r="F91" s="7" t="s">
+        <v>656</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
@@ -4731,8 +4404,8 @@
       <c r="E92" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F92" s="9" t="s">
-        <v>676</v>
+      <c r="F92" s="7" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
@@ -4740,7 +4413,7 @@
         <v>241</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>650</v>
+        <v>633</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>242</v>
@@ -4748,8 +4421,8 @@
       <c r="E93" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F93" s="9" t="s">
-        <v>674</v>
+      <c r="F93" s="7" t="s">
+        <v>656</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
@@ -4760,14 +4433,14 @@
         <v>244</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>677</v>
+        <v>659</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="F94" s="11"/>
-      <c r="G94" s="12" t="s">
-        <v>679</v>
+        <v>660</v>
+      </c>
+      <c r="F94" s="9"/>
+      <c r="G94" s="10" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
@@ -4781,9 +4454,9 @@
         <v>248</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="F95" s="11"/>
+        <v>662</v>
+      </c>
+      <c r="F95" s="9"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
@@ -4795,7 +4468,7 @@
       <c r="C96" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="F96" s="11"/>
+      <c r="F96" s="9"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
@@ -4808,73 +4481,73 @@
         <v>253</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="F97" s="11"/>
+        <v>663</v>
+      </c>
+      <c r="F97" s="9"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>682</v>
+        <v>664</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>244</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>683</v>
+        <v>665</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="F98" s="11"/>
+        <v>666</v>
+      </c>
+      <c r="F98" s="9"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>257</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>685</v>
+        <v>667</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>686</v>
+        <v>668</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="F99" s="11"/>
+        <v>669</v>
+      </c>
+      <c r="F99" s="9"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>688</v>
+        <v>670</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>685</v>
+        <v>667</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>261</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="F100" s="11"/>
+        <v>679</v>
+      </c>
+      <c r="F100" s="9"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>689</v>
+        <v>671</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>690</v>
+        <v>672</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>691</v>
+        <v>673</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="F101" s="13" t="s">
-        <v>693</v>
-      </c>
-      <c r="G101" s="14" t="s">
-        <v>694</v>
+        <v>674</v>
+      </c>
+      <c r="F101" s="11" t="s">
+        <v>675</v>
+      </c>
+      <c r="G101" s="12" t="s">
+        <v>676</v>
       </c>
     </row>
   </sheetData>
